--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_24_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>936142.7754443502</v>
+        <v>890890.2769848504</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7558307.070167588</v>
+        <v>4888794.453803539</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8453391.791395465</v>
+        <v>9695759.993867664</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>165.7970289519852</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>88.09081815943075</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>162.700669860232</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.00402729331236</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.00402729331205</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>165.9891204513449</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>22.33509515793042</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708302</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904886</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721433</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>206.7961746898972</v>
+        <v>69.2211607965985</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>13.84443721704871</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425556</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>144.2957156879708</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.6761715944833</v>
+        <v>19.78026345415358</v>
       </c>
       <c r="H8" t="n">
-        <v>302.3342338808924</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>126.3796986693934</v>
+        <v>126.3796986693935</v>
       </c>
       <c r="T8" t="n">
-        <v>207.2205572464783</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0555276341844</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>279.3697794618691</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4031333312317</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>93.49542143817384</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>32.71530508318227</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>177.7152040405569</v>
       </c>
       <c r="V9" t="n">
-        <v>148.9019313373982</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3642267354451</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>70.23382233462924</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>15.28665244236521</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.9949191299504</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>70.60714972816328</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863209</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>43.83162758969961</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734125409</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>141.1446905726943</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>128.3412890356181</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>294.3263193288753</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>89.45423727436724</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734125409</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414546</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>83.27365849109859</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>110.2504437088052</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>275.7779095904259</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>79.79054502264668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>65.88824576473807</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>47.38664856090094</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>17.35112070699643</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>229.7965692041383</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>128.8426486392076</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>115.0138334144185</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>58.92805047992106</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>209.1367971275304</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>125.0171131637573</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>54.89783554686813</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>173.5578851713666</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>268.9078486702804</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>105.8494828513098</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>154.2631539792447</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>370.021208170984</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>141.5291223298321</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>20.95866062610916</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>81.77200357366344</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>358.9473767737437</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>33.87982246815014</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>88.58584547962775</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>123.0092767027074</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,19 +3271,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>225.750889292396</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>173.5578851713669</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>81.46084344268529</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>122.8356027921142</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,19 +3508,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>193.2852664785249</v>
       </c>
       <c r="H38" t="n">
-        <v>183.1642512458436</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3556,19 +3556,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.7029035467948</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>42.62006017122175</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>42.79357508400535</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>64.37012338319094</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.92721361027451</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>237.8986635778433</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.6065387483031</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>341.0551422849032</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.5096023077527</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>115.3249935453965</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583.2614020227599</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="C2" t="n">
-        <v>393.8416170062751</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="D2" t="n">
-        <v>204.4218319897903</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330559</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123827</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020264</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262253</v>
+        <v>672.2420264262259</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262253</v>
+        <v>511.862417143344</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262253</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262253</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262253</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262253</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="X2" t="n">
-        <v>583.2614020227599</v>
+        <v>322.4426321268591</v>
       </c>
       <c r="Y2" t="n">
-        <v>583.2614020227599</v>
+        <v>322.4426321268591</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476353</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652796</v>
+        <v>676.9378076264286</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652796</v>
+        <v>676.9378076264286</v>
       </c>
       <c r="T3" t="n">
-        <v>583.2614020227599</v>
+        <v>676.9378076264286</v>
       </c>
       <c r="U3" t="n">
-        <v>393.8416170062751</v>
+        <v>676.9378076264286</v>
       </c>
       <c r="V3" t="n">
-        <v>393.8416170062751</v>
+        <v>676.9378076264286</v>
       </c>
       <c r="W3" t="n">
-        <v>393.8416170062751</v>
+        <v>676.9378076264286</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4218319897903</v>
+        <v>512.5936966564973</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>323.1739116400124</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404147</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404147</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404147</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404147</v>
+        <v>29.24882464404144</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910415</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="R4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="S4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="T4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="U4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="V4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="W4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="X4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.45491281910444</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.24882464404147</v>
+        <v>49.45491281910444</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2168.459826904653</v>
+        <v>941.6571940623221</v>
       </c>
       <c r="C5" t="n">
-        <v>2000.794048670971</v>
+        <v>941.6571940623221</v>
       </c>
       <c r="D5" t="n">
-        <v>1642.528350064221</v>
+        <v>941.6571940623221</v>
       </c>
       <c r="E5" t="n">
-        <v>1256.740097465976</v>
+        <v>555.8689414640778</v>
       </c>
       <c r="F5" t="n">
-        <v>845.7541926763688</v>
+        <v>144.8830366744702</v>
       </c>
       <c r="G5" t="n">
-        <v>429.723147379776</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947426</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
         <v>43.36919653809306</v>
@@ -4570,16 +4570,16 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
         <v>1761.960612545596</v>
@@ -4594,25 +4594,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U5" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V5" t="n">
-        <v>2168.459826904653</v>
+        <v>1705.262284299214</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.459826904653</v>
+        <v>1705.262284299214</v>
       </c>
       <c r="X5" t="n">
-        <v>2168.459826904653</v>
+        <v>1331.796526038134</v>
       </c>
       <c r="Y5" t="n">
-        <v>2168.459826904653</v>
+        <v>941.6571940623221</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K6" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N6" t="n">
         <v>1166.88538687358</v>
@@ -4664,25 +4664,25 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
         <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="U6" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="V6" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="W6" t="n">
         <v>1525.353274033374</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C7" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809306</v>
+        <v>372.376253458206</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809306</v>
+        <v>225.4863059602956</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>57.35347655531399</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>57.35347655531399</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>57.35347655531399</v>
       </c>
       <c r="J7" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L7" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927331</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P7" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>497.4664265514519</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>388.3019303235342</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S7" t="n">
-        <v>189.1224447077606</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T7" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U7" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V7" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W7" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X7" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.36919653809306</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>769.3365259970158</v>
+        <v>444.0019759884266</v>
       </c>
       <c r="C8" t="n">
-        <v>769.3365259970158</v>
+        <v>75.03945904801492</v>
       </c>
       <c r="D8" t="n">
-        <v>769.3365259970158</v>
+        <v>75.03945904801492</v>
       </c>
       <c r="E8" t="n">
-        <v>769.3365259970158</v>
+        <v>75.03945904801492</v>
       </c>
       <c r="F8" t="n">
-        <v>769.3365259970158</v>
+        <v>68.09395829881144</v>
       </c>
       <c r="G8" t="n">
-        <v>353.5020092349114</v>
+        <v>48.11389420370681</v>
       </c>
       <c r="H8" t="n">
-        <v>48.11389420370693</v>
+        <v>48.11389420370681</v>
       </c>
       <c r="I8" t="n">
-        <v>48.11389420370693</v>
+        <v>48.11389420370681</v>
       </c>
       <c r="J8" t="n">
-        <v>173.6006955371258</v>
+        <v>173.6006955371251</v>
       </c>
       <c r="K8" t="n">
-        <v>412.41139988441</v>
+        <v>412.4113998844087</v>
       </c>
       <c r="L8" t="n">
-        <v>745.5789575721424</v>
+        <v>745.5789575721403</v>
       </c>
       <c r="M8" t="n">
-        <v>1147.961497459638</v>
+        <v>1147.961497459636</v>
       </c>
       <c r="N8" t="n">
-        <v>1561.468815899341</v>
+        <v>1561.468815899338</v>
       </c>
       <c r="O8" t="n">
-        <v>1938.596789767453</v>
+        <v>1938.596789767448</v>
       </c>
       <c r="P8" t="n">
-        <v>2225.965789440888</v>
+        <v>2225.965789440883</v>
       </c>
       <c r="Q8" t="n">
-        <v>2393.595193823328</v>
+        <v>2393.595193823322</v>
       </c>
       <c r="R8" t="n">
-        <v>2405.694710185347</v>
+        <v>2405.694710185341</v>
       </c>
       <c r="S8" t="n">
-        <v>2278.038448903131</v>
+        <v>2278.038448903125</v>
       </c>
       <c r="T8" t="n">
-        <v>2068.724754714769</v>
+        <v>2278.038448903125</v>
       </c>
       <c r="U8" t="n">
-        <v>1815.133312660038</v>
+        <v>2278.038448903125</v>
       </c>
       <c r="V8" t="n">
-        <v>1815.133312660038</v>
+        <v>1946.975561559554</v>
       </c>
       <c r="W8" t="n">
-        <v>1532.941616233907</v>
+        <v>1594.20690628944</v>
       </c>
       <c r="X8" t="n">
-        <v>1159.475857972827</v>
+        <v>1220.74114802836</v>
       </c>
       <c r="Y8" t="n">
-        <v>769.3365259970158</v>
+        <v>830.6018160525484</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5297702181787</v>
+        <v>677.2733461246556</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0767409370517</v>
+        <v>502.8203168435286</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1423312758004</v>
+        <v>353.8859071822774</v>
       </c>
       <c r="E9" t="n">
-        <v>458.904876270345</v>
+        <v>194.6484521768218</v>
       </c>
       <c r="F9" t="n">
-        <v>312.37031829723</v>
+        <v>48.11389420370681</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5994765485111</v>
+        <v>48.11389420370681</v>
       </c>
       <c r="H9" t="n">
-        <v>81.15965691399205</v>
+        <v>48.11389420370681</v>
       </c>
       <c r="I9" t="n">
-        <v>48.11389420370693</v>
+        <v>48.11389420370681</v>
       </c>
       <c r="J9" t="n">
-        <v>104.0351264502469</v>
+        <v>104.0351264502465</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7682440873326</v>
+        <v>277.7682440873318</v>
       </c>
       <c r="L9" t="n">
-        <v>557.6964019039183</v>
+        <v>557.6964019039171</v>
       </c>
       <c r="M9" t="n">
-        <v>903.7162268899244</v>
+        <v>903.7162268899226</v>
       </c>
       <c r="N9" t="n">
-        <v>1273.302811944934</v>
+        <v>1273.302811944932</v>
       </c>
       <c r="O9" t="n">
-        <v>1589.182537471365</v>
+        <v>1589.182537471362</v>
       </c>
       <c r="P9" t="n">
-        <v>1823.370799411577</v>
+        <v>1823.370799411573</v>
       </c>
       <c r="Q9" t="n">
-        <v>1930.000254186832</v>
+        <v>1930.000254186828</v>
       </c>
       <c r="R9" t="n">
-        <v>1930.000254186832</v>
+        <v>1930.000254186828</v>
       </c>
       <c r="S9" t="n">
-        <v>1930.000254186832</v>
+        <v>1930.000254186828</v>
       </c>
       <c r="T9" t="n">
-        <v>1930.000254186832</v>
+        <v>1930.000254186828</v>
       </c>
       <c r="U9" t="n">
-        <v>1930.000254186832</v>
+        <v>1750.489947075155</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.594262936935</v>
+        <v>1515.337838843412</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.356906208733</v>
+        <v>1261.10048211521</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.505406003201</v>
+        <v>1053.248981909677</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.745107238247</v>
+        <v>845.4886831447236</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48.11389420370693</v>
+        <v>581.9048636376208</v>
       </c>
       <c r="C10" t="n">
-        <v>48.11389420370693</v>
+        <v>581.9048636376208</v>
       </c>
       <c r="D10" t="n">
-        <v>48.11389420370693</v>
+        <v>581.9048636376208</v>
       </c>
       <c r="E10" t="n">
-        <v>48.11389420370693</v>
+        <v>433.9917700552277</v>
       </c>
       <c r="F10" t="n">
-        <v>48.11389420370693</v>
+        <v>287.1018225573173</v>
       </c>
       <c r="G10" t="n">
-        <v>48.11389420370693</v>
+        <v>119.0571490871707</v>
       </c>
       <c r="H10" t="n">
-        <v>48.11389420370693</v>
+        <v>119.0571490871707</v>
       </c>
       <c r="I10" t="n">
-        <v>48.11389420370693</v>
+        <v>48.11389420370681</v>
       </c>
       <c r="J10" t="n">
-        <v>48.11389420370693</v>
+        <v>48.11389420370681</v>
       </c>
       <c r="K10" t="n">
-        <v>107.4998553139089</v>
+        <v>107.4998553139085</v>
       </c>
       <c r="L10" t="n">
-        <v>213.3992373663726</v>
+        <v>213.3992373663719</v>
       </c>
       <c r="M10" t="n">
-        <v>328.3135705658655</v>
+        <v>328.3135705658646</v>
       </c>
       <c r="N10" t="n">
-        <v>448.3530236739863</v>
+        <v>448.3530236739851</v>
       </c>
       <c r="O10" t="n">
-        <v>538.9157986502105</v>
+        <v>538.915798650209</v>
       </c>
       <c r="P10" t="n">
-        <v>597.3459267107187</v>
+        <v>597.345926710717</v>
       </c>
       <c r="Q10" t="n">
-        <v>597.3459267107187</v>
+        <v>581.9048636376208</v>
       </c>
       <c r="R10" t="n">
-        <v>597.3459267107187</v>
+        <v>581.9048636376208</v>
       </c>
       <c r="S10" t="n">
-        <v>597.3459267107187</v>
+        <v>581.9048636376208</v>
       </c>
       <c r="T10" t="n">
-        <v>374.1187356703648</v>
+        <v>581.9048636376208</v>
       </c>
       <c r="U10" t="n">
-        <v>374.1187356703648</v>
+        <v>581.9048636376208</v>
       </c>
       <c r="V10" t="n">
-        <v>119.4342474644779</v>
+        <v>581.9048636376208</v>
       </c>
       <c r="W10" t="n">
-        <v>48.11389420370693</v>
+        <v>581.9048636376208</v>
       </c>
       <c r="X10" t="n">
-        <v>48.11389420370693</v>
+        <v>581.9048636376208</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.11389420370693</v>
+        <v>581.9048636376208</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>909.3697179459623</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477181</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477181</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5056,10 +5056,10 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.58875505237</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609172</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609172</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1654.235256616834</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.7853475753375</v>
+        <v>342.3669689068692</v>
       </c>
       <c r="C13" t="n">
-        <v>376.7853475753375</v>
+        <v>342.3669689068692</v>
       </c>
       <c r="D13" t="n">
-        <v>234.2149530574645</v>
+        <v>342.3669689068692</v>
       </c>
       <c r="E13" t="n">
-        <v>234.2149530574645</v>
+        <v>342.3669689068692</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218345</v>
@@ -5199,52 +5199,52 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962299</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372935</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596509</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588489</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886967</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068866</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596454</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="R13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="S13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="T13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="U13" t="n">
-        <v>920.887005818185</v>
+        <v>631.7841389438298</v>
       </c>
       <c r="V13" t="n">
-        <v>666.2025176122982</v>
+        <v>631.7841389438298</v>
       </c>
       <c r="W13" t="n">
-        <v>376.7853475753375</v>
+        <v>342.3669689068692</v>
       </c>
       <c r="X13" t="n">
-        <v>376.7853475753375</v>
+        <v>342.3669689068692</v>
       </c>
       <c r="Y13" t="n">
-        <v>376.7853475753375</v>
+        <v>342.3669689068692</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1887.813801820607</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="C14" t="n">
-        <v>1518.851284880195</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D14" t="n">
-        <v>1160.585586273445</v>
+        <v>863.2862738200353</v>
       </c>
       <c r="E14" t="n">
-        <v>774.7973336752004</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F14" t="n">
-        <v>363.8114288855929</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G14" t="n">
         <v>66.51211643218345</v>
@@ -5278,22 +5278,22 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410104</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V14" t="n">
-        <v>2630.721789066533</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W14" t="n">
-        <v>2277.953133796419</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X14" t="n">
-        <v>2277.953133796419</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y14" t="n">
-        <v>1887.813801820607</v>
+        <v>1608.151812490908</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218345</v>
@@ -5360,25 +5360,25 @@
         <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M15" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>627.8744564335971</v>
+        <v>319.5631059167556</v>
       </c>
       <c r="C16" t="n">
-        <v>627.8744564335971</v>
+        <v>150.6269229888487</v>
       </c>
       <c r="D16" t="n">
-        <v>477.7578170212613</v>
+        <v>150.6269229888487</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962299</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372935</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596509</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588489</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886967</v>
       </c>
       <c r="O16" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068866</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596454</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181863</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181855</v>
+        <v>729.2011216450127</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181855</v>
+        <v>729.2011216450127</v>
       </c>
       <c r="U16" t="n">
-        <v>809.5229212638368</v>
+        <v>729.2011216450127</v>
       </c>
       <c r="V16" t="n">
-        <v>809.5229212638368</v>
+        <v>729.2011216450127</v>
       </c>
       <c r="W16" t="n">
-        <v>809.5229212638368</v>
+        <v>729.2011216450127</v>
       </c>
       <c r="X16" t="n">
-        <v>809.5229212638368</v>
+        <v>501.2115707469953</v>
       </c>
       <c r="Y16" t="n">
-        <v>809.5229212638368</v>
+        <v>501.2115707469953</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1934.181533884357</v>
+        <v>2212.771568013856</v>
       </c>
       <c r="C17" t="n">
-        <v>1565.219016943946</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>1206.953318337195</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>821.1650657389509</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5533,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V17" t="n">
-        <v>2741.012457539437</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.243802269323</v>
+        <v>2972.837166339058</v>
       </c>
       <c r="X17" t="n">
-        <v>2014.778044008243</v>
+        <v>2599.371408077978</v>
       </c>
       <c r="Y17" t="n">
-        <v>1934.181533884357</v>
+        <v>2599.371408077978</v>
       </c>
     </row>
     <row r="18">
@@ -5585,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031481</v>
@@ -5612,7 +5612,7 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>626.3436713194226</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C19" t="n">
-        <v>626.3436713194226</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D19" t="n">
-        <v>626.3436713194226</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E19" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F19" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L19" t="n">
         <v>332.3555681596507</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O19" t="n">
         <v>809.015235706886</v>
@@ -5697,28 +5697,28 @@
         <v>920.8870058181855</v>
       </c>
       <c r="R19" t="n">
-        <v>854.3332222174399</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S19" t="n">
-        <v>854.3332222174399</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T19" t="n">
-        <v>854.3332222174399</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U19" t="n">
-        <v>854.3332222174399</v>
+        <v>631.784138943829</v>
       </c>
       <c r="V19" t="n">
-        <v>854.3332222174399</v>
+        <v>631.784138943829</v>
       </c>
       <c r="W19" t="n">
-        <v>854.3332222174399</v>
+        <v>342.3669689068684</v>
       </c>
       <c r="X19" t="n">
-        <v>626.3436713194226</v>
+        <v>114.3774180088511</v>
       </c>
       <c r="Y19" t="n">
-        <v>626.3436713194226</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1590.514489367197</v>
+        <v>2065.110222835254</v>
       </c>
       <c r="C20" t="n">
-        <v>1221.551972426786</v>
+        <v>1696.147705894842</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2862738200351</v>
+        <v>1337.882007288092</v>
       </c>
       <c r="E20" t="n">
-        <v>477.498021221791</v>
+        <v>952.0937546898474</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218343</v>
+        <v>541.1078499002399</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>126.0353997452364</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
@@ -5773,31 +5773,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U20" t="n">
-        <v>3093.488074938325</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V20" t="n">
-        <v>3093.488074938325</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W20" t="n">
-        <v>2740.71941966821</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="X20" t="n">
-        <v>2367.25366140713</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y20" t="n">
-        <v>1977.114329431319</v>
+        <v>2451.710062899376</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C22" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D22" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K22" t="n">
         <v>176.6457242372933</v>
@@ -5940,22 +5940,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T22" t="n">
-        <v>790.7429162836319</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U22" t="n">
-        <v>790.7429162836319</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V22" t="n">
-        <v>790.7429162836319</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="W22" t="n">
-        <v>790.7429162836319</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X22" t="n">
-        <v>562.7533653856145</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y22" t="n">
-        <v>562.7533653856145</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2065.110222835252</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C23" t="n">
-        <v>1696.147705894841</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.88200728809</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E23" t="n">
-        <v>952.093754689846</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F23" t="n">
-        <v>541.1078499002385</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
-        <v>126.035399745235</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -6010,7 +6010,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6025,16 +6025,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V23" t="n">
-        <v>3215.315153136266</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W23" t="n">
-        <v>3215.315153136266</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X23" t="n">
-        <v>2841.849394875186</v>
+        <v>2320.234320494773</v>
       </c>
       <c r="Y23" t="n">
-        <v>2451.710062899374</v>
+        <v>1930.094988518961</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>920.8870058181849</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C25" t="n">
-        <v>751.950822890278</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D25" t="n">
-        <v>751.950822890278</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E25" t="n">
-        <v>604.0377293078849</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
         <v>176.6457242372933</v>
@@ -6156,43 +6156,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="V25" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="W25" t="n">
-        <v>920.8870058181849</v>
+        <v>439.7839516080508</v>
       </c>
       <c r="X25" t="n">
-        <v>920.8870058181849</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.8870058181849</v>
+        <v>384.3315924698002</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038043</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097631</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D26" t="n">
-        <v>1453.669719097631</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E26" t="n">
-        <v>1067.881466499387</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F26" t="n">
-        <v>656.8955617097795</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
-        <v>241.8231115547759</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077976</v>
+        <v>2588.318918149023</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102165</v>
+        <v>2316.694828583083</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>675.2351809199101</v>
+        <v>342.366968906868</v>
       </c>
       <c r="C28" t="n">
-        <v>675.2351809199101</v>
+        <v>173.430785978961</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2351809199101</v>
+        <v>173.430785978961</v>
       </c>
       <c r="E28" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F28" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K28" t="n">
         <v>176.6457242372933</v>
@@ -6393,43 +6393,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R28" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S28" t="n">
-        <v>675.2351809199101</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T28" t="n">
-        <v>675.2351809199101</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U28" t="n">
-        <v>675.2351809199101</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V28" t="n">
-        <v>675.2351809199101</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W28" t="n">
-        <v>675.2351809199101</v>
+        <v>342.366968906868</v>
       </c>
       <c r="X28" t="n">
-        <v>675.2351809199101</v>
+        <v>342.366968906868</v>
       </c>
       <c r="Y28" t="n">
-        <v>675.2351809199101</v>
+        <v>342.366968906868</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1964.273285499504</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C29" t="n">
-        <v>1595.310768559093</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D29" t="n">
-        <v>1237.045069952342</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>851.2568173540981</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>440.2709125644905</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
@@ -6481,34 +6481,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883009</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539438</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W29" t="n">
-        <v>2741.012457539438</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X29" t="n">
-        <v>2741.012457539438</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y29" t="n">
-        <v>2350.873125563626</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2471.230932223171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C31" t="n">
-        <v>2471.230932223171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D31" t="n">
-        <v>2471.230932223171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>2471.230932223171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>2471.230932223171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>2471.230932223171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>2471.230932223171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>2471.230932223171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>2483.053685760611</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K31" t="n">
-        <v>2581.364540028281</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
-        <v>2737.074383950639</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>2904.506865249836</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>3075.815702279684</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>3213.734051497873</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>3312.685054250632</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609172</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.605821609172</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.605821609172</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>3304.435457340375</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U31" t="n">
-        <v>3015.332590466019</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V31" t="n">
-        <v>2760.648102260132</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W31" t="n">
-        <v>2471.230932223171</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X31" t="n">
-        <v>2471.230932223171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y31" t="n">
-        <v>2471.230932223171</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1881.708680670285</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C32" t="n">
-        <v>1881.708680670285</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D32" t="n">
-        <v>1523.442982063534</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E32" t="n">
-        <v>1137.65472946529</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>726.6688246756826</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6730,22 +6730,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3291.383778712049</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>3037.853301985886</v>
       </c>
       <c r="V32" t="n">
-        <v>2994.542934265601</v>
+        <v>2706.790414642315</v>
       </c>
       <c r="W32" t="n">
-        <v>2641.774278995486</v>
+        <v>2354.0217593722</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.308520734407</v>
+        <v>1980.556001111121</v>
       </c>
       <c r="Y32" t="n">
-        <v>2268.308520734407</v>
+        <v>1590.416669135309</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.9927684318074</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C34" t="n">
-        <v>155.9927684318074</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D34" t="n">
-        <v>155.9927684318074</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E34" t="n">
-        <v>155.9927684318074</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F34" t="n">
-        <v>155.9927684318074</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G34" t="n">
-        <v>155.9927684318074</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K34" t="n">
         <v>176.6457242372933</v>
@@ -6867,43 +6867,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>920.887005818185</v>
+        <v>796.6352111689855</v>
       </c>
       <c r="U34" t="n">
-        <v>920.887005818185</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="V34" t="n">
-        <v>666.2025176122982</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="W34" t="n">
-        <v>376.7853475753375</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="X34" t="n">
-        <v>376.7853475753375</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="Y34" t="n">
-        <v>155.9927684318074</v>
+        <v>507.5323442946291</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038044</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097632</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.404020490882</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>709.6157678926375</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>709.6157678926375</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>294.5433177376339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6973,16 +6973,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339057</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077977</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102166</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C37" t="n">
-        <v>751.9508228902781</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D37" t="n">
-        <v>601.8341834779424</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E37" t="n">
-        <v>601.8341834779424</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
         <v>176.6457242372933</v>
@@ -7104,43 +7104,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>920.887005818185</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W37" t="n">
-        <v>920.887005818185</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X37" t="n">
-        <v>920.887005818185</v>
+        <v>148.7957966773201</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.887005818185</v>
+        <v>148.7957966773201</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2232.598233480554</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C38" t="n">
-        <v>1863.635716540142</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D38" t="n">
-        <v>1505.370017933392</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="E38" t="n">
-        <v>1119.581765335148</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="F38" t="n">
-        <v>708.5958605455401</v>
+        <v>601.3302584915484</v>
       </c>
       <c r="G38" t="n">
-        <v>293.5234103905365</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
@@ -7174,16 +7174,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>3009.337405520488</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W38" t="n">
-        <v>3009.337405520488</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X38" t="n">
-        <v>3009.337405520488</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y38" t="n">
-        <v>2619.198073544676</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>385.5649387724261</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C40" t="n">
-        <v>216.6287558445192</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E40" t="n">
         <v>66.51211643218342</v>
@@ -7356,28 +7356,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>831.0565485757129</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="V40" t="n">
-        <v>831.0565485757129</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="W40" t="n">
-        <v>831.0565485757129</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="X40" t="n">
-        <v>788.005982746196</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="Y40" t="n">
-        <v>567.2134036026658</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1977.407367302545</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C41" t="n">
-        <v>1608.444850362133</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D41" t="n">
-        <v>1250.179151755382</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>864.3908991571382</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V41" t="n">
-        <v>2741.012457539436</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="W41" t="n">
-        <v>2741.012457539436</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.546699278356</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.407367302545</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7493,10 +7493,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,7 +7508,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>410.991559800298</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C43" t="n">
-        <v>410.991559800298</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D43" t="n">
-        <v>410.991559800298</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E43" t="n">
-        <v>410.991559800298</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F43" t="n">
-        <v>410.991559800298</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T43" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U43" t="n">
-        <v>631.7841389438281</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V43" t="n">
-        <v>631.7841389438281</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="W43" t="n">
-        <v>631.7841389438281</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="X43" t="n">
-        <v>631.7841389438281</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="Y43" t="n">
-        <v>410.991559800298</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1519.109083729354</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C44" t="n">
-        <v>1150.146566788942</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D44" t="n">
-        <v>791.8808681821918</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E44" t="n">
-        <v>406.0926155839475</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F44" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7681,19 +7681,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180639</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>2664.837261798364</v>
       </c>
       <c r="Y44" t="n">
-        <v>1698.509627919559</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>332.773976541745</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7839,19 +7839,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V46" t="n">
-        <v>666.202517612298</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="W46" t="n">
-        <v>666.202517612298</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X46" t="n">
-        <v>666.202517612298</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y46" t="n">
-        <v>445.4099384687679</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
   </sheetData>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>281.6402825190383</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>30.23706061590673</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377103</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715758</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.68201325828521</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2837713196626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22913,19 +22913,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>44.89880847102239</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923926</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22995,22 +22995,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>77.07210304633182</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>70.66270691447903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23080,10 +23080,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>69.87118925554392</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>25.20549727320319</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.6413924703699</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.3436201790821</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8137252499236</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>83.89865581202707</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3642267354451</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.7638628228272</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>106.5295869551745</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.98401099232986</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.28665244236504</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>104.1486779823913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.6667364159068</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2302973952356</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>215.9158486084277</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0688818921482</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>342.406311066354</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>7.47078244551804</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>17.07975898731317</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23472,10 +23472,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>116.5954063245782</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>296.7837013816863</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>63.16030415547058</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>175.9613944968077</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>89.49498218058164</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>306.4473936334069</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>23.04390690530924</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23946,19 +23946,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1980047911939</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>277.256643680324</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>21.19860275476364</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,22 +24180,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>90.7063006369616</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>137.1238099094095</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>235.6797139073994</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>160.5943035509387</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>20.4039348591739</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>170.811819842169</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>121.0498792159538</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>117.3300899857732</v>
       </c>
     </row>
     <row r="27">
@@ -24603,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>40.58447979525934</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>35.50587135219718</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>40.90051748246947</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>228.2019783486369</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>198.59028865006</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>204.7509947629276</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>51.97434887970974</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>170.03814767147</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>56.16916943469303</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25128,22 +25128,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>96.53967257346181</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25159,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>68.8568750949245</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25213,7 +25213,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>154.194373298768</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>98.37113673925201</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>22.585445230817</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>217.6364591749285</v>
       </c>
       <c r="H38" t="n">
-        <v>111.4435131414768</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25605,7 +25605,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>82.50893465881811</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>183.0895952178154</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0824706577061</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>263.3821350869439</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>66.09859464875372</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>48.62433475874775</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.1273029151774</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>28.67595839356585</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.32237787418464</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>136.8126497784315</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>399935.1469234778</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>619807.8782613191</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>654641.290471881</v>
+        <v>985250.1238371405</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789698.3456849991</v>
+        <v>789698.3456849993</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789698.3456849991</v>
+        <v>789698.3456849989</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789698.3456849993</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>789698.3456849993</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>789698.3456849994</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789698.3456849993</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>789698.3456849989</v>
+        <v>789698.345684999</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>183303.6090065938</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="C2" t="n">
-        <v>284078.610869771</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="D2" t="n">
-        <v>300043.924799612</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="E2" t="n">
-        <v>361945.0751056245</v>
+        <v>361945.0751056244</v>
       </c>
       <c r="F2" t="n">
         <v>361945.0751056244</v>
       </c>
       <c r="G2" t="n">
+        <v>361945.0751056246</v>
+      </c>
+      <c r="H2" t="n">
         <v>361945.0751056245</v>
-      </c>
-      <c r="H2" t="n">
-        <v>361945.0751056244</v>
       </c>
       <c r="I2" t="n">
         <v>361945.0751056245</v>
       </c>
       <c r="J2" t="n">
-        <v>361945.0751056244</v>
+        <v>361945.0751056245</v>
       </c>
       <c r="K2" t="n">
-        <v>361945.0751056246</v>
+        <v>361945.0751056245</v>
       </c>
       <c r="L2" t="n">
         <v>361945.0751056244</v>
@@ -26352,7 +26352,7 @@
         <v>361945.0751056244</v>
       </c>
       <c r="O2" t="n">
-        <v>361945.0751056244</v>
+        <v>361945.0751056243</v>
       </c>
       <c r="P2" t="n">
         <v>361945.0751056244</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861775</v>
+        <v>392510.2442861773</v>
       </c>
       <c r="D3" t="n">
-        <v>59871.45719829651</v>
+        <v>59871.45719829494</v>
       </c>
       <c r="E3" t="n">
-        <v>219439.6828815243</v>
+        <v>219439.6828815262</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487787</v>
+        <v>91259.95686487771</v>
       </c>
       <c r="L3" t="n">
-        <v>15010.50346109846</v>
+        <v>15010.50346109809</v>
       </c>
       <c r="M3" t="n">
-        <v>57311.38215281577</v>
+        <v>57311.38215281617</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.800118072334</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>384.3219252469135</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>425.2075505993807</v>
+        <v>157675.738364681</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061237</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061236</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061231</v>
@@ -26456,7 +26456,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
         <v>584.6469890061231</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>89860.11994103159</v>
+        <v>89860.11994103147</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="F5" t="n">
         <v>74306.34056139333</v>
       </c>
       <c r="G5" t="n">
+        <v>74306.34056139333</v>
+      </c>
+      <c r="H5" t="n">
         <v>74306.34056139331</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26496,7 +26496,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-465176.8940439374</v>
+        <v>-475306.2943412333</v>
       </c>
       <c r="C6" t="n">
-        <v>-194015.0371975256</v>
+        <v>-200339.3428055916</v>
       </c>
       <c r="D6" t="n">
-        <v>149887.1401096845</v>
+        <v>144165.6579213484</v>
       </c>
       <c r="E6" t="n">
-        <v>67614.40467370082</v>
+        <v>63540.40929552924</v>
       </c>
       <c r="F6" t="n">
-        <v>287054.0875552248</v>
+        <v>282980.0921770554</v>
       </c>
       <c r="G6" t="n">
-        <v>287054.0875552251</v>
+        <v>282980.0921770558</v>
       </c>
       <c r="H6" t="n">
-        <v>287054.0875552252</v>
+        <v>282980.0921770556</v>
       </c>
       <c r="I6" t="n">
-        <v>287054.0875552251</v>
+        <v>282980.0921770554</v>
       </c>
       <c r="J6" t="n">
-        <v>237989.1428266804</v>
+        <v>233915.1474485108</v>
       </c>
       <c r="K6" t="n">
-        <v>195794.1306903472</v>
+        <v>191720.1353121777</v>
       </c>
       <c r="L6" t="n">
-        <v>272043.5840941265</v>
+        <v>267969.5887159573</v>
       </c>
       <c r="M6" t="n">
-        <v>229742.7054024092</v>
+        <v>225668.7100242392</v>
       </c>
       <c r="N6" t="n">
-        <v>287054.0875552249</v>
+        <v>282980.0921770554</v>
       </c>
       <c r="O6" t="n">
-        <v>287054.0875552251</v>
+        <v>282980.0921770552</v>
       </c>
       <c r="P6" t="n">
-        <v>287054.0875552249</v>
+        <v>282980.0921770554</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>902.1082727621246</v>
+        <v>902.1082727621234</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593299</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="D4" t="n">
-        <v>601.4236775463366</v>
+        <v>601.4236775463352</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022931</v>
@@ -26804,34 +26804,34 @@
         <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="K4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247794</v>
+        <v>305.2407236247793</v>
       </c>
       <c r="D3" t="n">
-        <v>48.39760822444055</v>
+        <v>48.3976082244393</v>
       </c>
       <c r="E3" t="n">
-        <v>187.6684278311737</v>
+        <v>187.6684278311756</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>-2.211519048917135e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598433</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="D4" t="n">
-        <v>59.30872082017346</v>
+        <v>59.30872082017187</v>
       </c>
       <c r="E4" t="n">
-        <v>229.9777778559564</v>
+        <v>229.9777778559579</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598438</v>
+        <v>354.5893695598431</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017324</v>
+        <v>59.30872082017176</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559564</v>
+        <v>229.977777855958</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598433</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>59.30872082017346</v>
+        <v>59.30872082017187</v>
       </c>
       <c r="M4" t="n">
-        <v>229.9777778559564</v>
+        <v>229.9777778559579</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0790167897262</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>25.91829388988671</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,19 +27469,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>43.07231534324549</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>18.1571086109843</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>146.9979079094018</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>389.5356396856964</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27748,16 +27748,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>182.4738223643211</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4.309872122190534</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>391.8959081403298</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>302.3342338808924</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>70.6627069144792</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.2205572464783</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0555276341844</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4031333312317</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.49542143817385</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>32.71530508318236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.20549727320335</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>135.64139247037</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.3436201790821</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>48.09852120936665</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.7638628228272</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>36.29576462054537</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>11.98401099233</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>104.1486779823914</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.6667364159069</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.9949191299504</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2302973952356</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31293,10 +31293,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
         <v>612.3808166839008</v>
@@ -31305,22 +31305,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928394</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
         <v>173.4885040076062</v>
@@ -31372,19 +31372,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884504</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
         <v>234.3999545349506</v>
@@ -31393,10 +31393,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
         <v>0.1208081129062761</v>
@@ -31442,22 +31442,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001568</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
         <v>217.5982526595396</v>
@@ -31469,13 +31469,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
         <v>0.08397154077419852</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.626565920651754</v>
+        <v>3.62656592065175</v>
       </c>
       <c r="H8" t="n">
-        <v>37.14056823487478</v>
+        <v>37.14056823487474</v>
       </c>
       <c r="I8" t="n">
-        <v>139.8131826559269</v>
+        <v>139.8131826559267</v>
       </c>
       <c r="J8" t="n">
-        <v>307.8002493079171</v>
+        <v>307.8002493079167</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3127847291059</v>
+        <v>461.3127847291054</v>
       </c>
       <c r="L8" t="n">
-        <v>572.2993015232522</v>
+        <v>572.2993015232515</v>
       </c>
       <c r="M8" t="n">
-        <v>636.7932432146428</v>
+        <v>636.793243214642</v>
       </c>
       <c r="N8" t="n">
-        <v>647.0972236366947</v>
+        <v>647.0972236366938</v>
       </c>
       <c r="O8" t="n">
-        <v>611.0355587632138</v>
+        <v>611.035558763213</v>
       </c>
       <c r="P8" t="n">
-        <v>521.5047125971234</v>
+        <v>521.5047125971228</v>
       </c>
       <c r="Q8" t="n">
-        <v>391.6283205637824</v>
+        <v>391.6283205637819</v>
       </c>
       <c r="R8" t="n">
-        <v>227.807271513141</v>
+        <v>227.8072715131407</v>
       </c>
       <c r="S8" t="n">
-        <v>82.64037091685194</v>
+        <v>82.64037091685184</v>
       </c>
       <c r="T8" t="n">
-        <v>15.87529231765306</v>
+        <v>15.87529231765304</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2901252736521403</v>
+        <v>0.2901252736521399</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.94038383197891</v>
+        <v>1.940383831978907</v>
       </c>
       <c r="H9" t="n">
-        <v>18.74002279832263</v>
+        <v>18.74002279832261</v>
       </c>
       <c r="I9" t="n">
-        <v>66.80707491681773</v>
+        <v>66.80707491681764</v>
       </c>
       <c r="J9" t="n">
-        <v>183.3237198449899</v>
+        <v>183.3237198449897</v>
       </c>
       <c r="K9" t="n">
-        <v>313.3294365875768</v>
+        <v>313.3294365875764</v>
       </c>
       <c r="L9" t="n">
-        <v>421.3100947461224</v>
+        <v>421.3100947461219</v>
       </c>
       <c r="M9" t="n">
-        <v>491.6490086553578</v>
+        <v>491.6490086553572</v>
       </c>
       <c r="N9" t="n">
-        <v>504.6614949671814</v>
+        <v>504.6614949671808</v>
       </c>
       <c r="O9" t="n">
-        <v>461.6666742691224</v>
+        <v>461.6666742691218</v>
       </c>
       <c r="P9" t="n">
-        <v>370.5282073539376</v>
+        <v>370.5282073539371</v>
       </c>
       <c r="Q9" t="n">
-        <v>247.6882940610271</v>
+        <v>247.6882940610268</v>
       </c>
       <c r="R9" t="n">
-        <v>120.4740066907608</v>
+        <v>120.4740066907606</v>
       </c>
       <c r="S9" t="n">
-        <v>36.04177863346788</v>
+        <v>36.04177863346784</v>
       </c>
       <c r="T9" t="n">
-        <v>7.821108515739549</v>
+        <v>7.821108515739539</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1276568310512441</v>
+        <v>0.1276568310512439</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.626752623013667</v>
+        <v>1.626752623013665</v>
       </c>
       <c r="H10" t="n">
-        <v>14.46330968461243</v>
+        <v>14.46330968461241</v>
       </c>
       <c r="I10" t="n">
-        <v>48.92088797208375</v>
+        <v>48.92088797208368</v>
       </c>
       <c r="J10" t="n">
-        <v>115.0114104470663</v>
+        <v>115.0114104470661</v>
       </c>
       <c r="K10" t="n">
-        <v>188.9990774737696</v>
+        <v>188.9990774737694</v>
       </c>
       <c r="L10" t="n">
-        <v>241.8537490615047</v>
+        <v>241.8537490615044</v>
       </c>
       <c r="M10" t="n">
-        <v>255.0008679874969</v>
+        <v>255.0008679874966</v>
       </c>
       <c r="N10" t="n">
-        <v>248.9375173017189</v>
+        <v>248.9375173017186</v>
       </c>
       <c r="O10" t="n">
-        <v>229.9340889328773</v>
+        <v>229.934088932877</v>
       </c>
       <c r="P10" t="n">
-        <v>196.7483354233983</v>
+        <v>196.7483354233981</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.2183491870808</v>
+        <v>136.2183491870806</v>
       </c>
       <c r="R10" t="n">
-        <v>73.14471339477814</v>
+        <v>73.14471339477805</v>
       </c>
       <c r="S10" t="n">
-        <v>28.34986162106544</v>
+        <v>28.34986162106541</v>
       </c>
       <c r="T10" t="n">
-        <v>6.950670298331121</v>
+        <v>6.950670298331112</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08873196125529104</v>
+        <v>0.08873196125529093</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H16" t="n">
         <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32332,10 +32332,10 @@
         <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905542</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33894,7 +33894,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
         <v>557.281137600381</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>372.283405866205</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
         <v>382.9677530873099</v>
@@ -34953,7 +34953,7 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
         <v>148.31198861839</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.65087734093947</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K6" t="n">
         <v>158.6780472169987</v>
@@ -35023,7 +35023,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510194</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
         <v>346.2449737319509</v>
@@ -35035,7 +35035,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,19 +35096,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M7" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767806</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P7" t="n">
         <v>48.46489236084162</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>126.7543447812308</v>
+        <v>126.7543447812304</v>
       </c>
       <c r="K8" t="n">
-        <v>241.2229336841254</v>
+        <v>241.2229336841248</v>
       </c>
       <c r="L8" t="n">
-        <v>336.532886553265</v>
+        <v>336.5328865532643</v>
       </c>
       <c r="M8" t="n">
-        <v>406.4470099873701</v>
+        <v>406.4470099873693</v>
       </c>
       <c r="N8" t="n">
-        <v>417.6841600401038</v>
+        <v>417.6841600401029</v>
       </c>
       <c r="O8" t="n">
-        <v>380.937347341527</v>
+        <v>380.9373473415262</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2717168418539</v>
+        <v>290.2717168418532</v>
       </c>
       <c r="Q8" t="n">
-        <v>169.3226306893329</v>
+        <v>169.3226306893324</v>
       </c>
       <c r="R8" t="n">
-        <v>12.22173369900884</v>
+        <v>12.22173369900855</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>56.48609317832319</v>
+        <v>56.48609317832296</v>
       </c>
       <c r="K9" t="n">
-        <v>175.4879976132178</v>
+        <v>175.4879976132174</v>
       </c>
       <c r="L9" t="n">
-        <v>282.7557149662483</v>
+        <v>282.7557149662478</v>
       </c>
       <c r="M9" t="n">
-        <v>349.5149747333395</v>
+        <v>349.5149747333389</v>
       </c>
       <c r="N9" t="n">
-        <v>373.3197828838481</v>
+        <v>373.3197828838474</v>
       </c>
       <c r="O9" t="n">
-        <v>319.0704298246779</v>
+        <v>319.0704298246773</v>
       </c>
       <c r="P9" t="n">
-        <v>236.5537999396074</v>
+        <v>236.5537999396068</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.7065199750056</v>
+        <v>107.7065199750053</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>59.98581930323425</v>
+        <v>59.98581930323402</v>
       </c>
       <c r="L10" t="n">
-        <v>106.9690727802664</v>
+        <v>106.9690727802661</v>
       </c>
       <c r="M10" t="n">
-        <v>116.0750840398918</v>
+        <v>116.0750840398915</v>
       </c>
       <c r="N10" t="n">
-        <v>121.2519728364857</v>
+        <v>121.2519728364854</v>
       </c>
       <c r="O10" t="n">
-        <v>91.47755048103454</v>
+        <v>91.47755048103423</v>
       </c>
       <c r="P10" t="n">
-        <v>59.02033137425073</v>
+        <v>59.02033137425047</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034297</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966719</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286439</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840384</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230785</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567575</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106947</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014231</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034297</v>
       </c>
       <c r="K16" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966719</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286439</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840384</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230785</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567575</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106947</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014231</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
